--- a/BIO247Lecture/BIO247Exams/BIO247Exam2/Exam 2/DomicoMPMdf.xlsx
+++ b/BIO247Lecture/BIO247Exams/BIO247Exam2/Exam 2/DomicoMPMdf.xlsx
@@ -372,240 +372,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MPM32</t>
+          <t>MPM11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TCRGGCAGGCCTTACCATGCAAGTCGARCGATGATTWTCTRACTTGCTAGCKAASAGKAGTGTCKGACGGGTGAGTAACCCTTTRGAATCTGCCTCCTATTGGGGGATACCGCKGGGAAACTCRAWGTCTACCGACCACRACCTGCGAGTGAAAGGGGGATGCGCTCTTGCTATCCTATGAGCCAWTATCTRATTAGCTRGTTRGTGGGGCAMMRGCCCACCMAKGCCACGATSKKTWRCTAGGATGAKAGGACGATCWGTCACWCCGAAACTGACACRASGCCCRGACTCCGCCGGGATGCRGCATTGGGGACTATGGGACCATGGGGGATCCCCCCATCCCGCCTTGCCGARTGTGGSAATAAGGTCTTTTGGTTGTTTARCACTTTARGAAGGGAGGAGAGGCTAATGGTTAATACTTTTTCGATTCCACSTTACCAGCCRAATAATCACCCGCTAACTCTGTGCCAGCTACCACRGTAATACCAAGGGTGCRAGCGTTTTTCKGAATTTCWGGGCSTAAARCGAGTGTWKGTGGCTCATTAGTTCACATGTCAAATCCCCGGGCTTAACCTGGGAACTGAATGTGATACTGGTGTGTGCTKAAATGGGTGAAAAGGAACTAGAATTCCAGGTGTAYGCGSTAAARATGCTTAAAGATCTGGATGAATACCGATGGCCAAGGCAGCTTCMTGGCATAATATTGACACTGAGATTCGAGAGCGTGGGTATTAKACACGATTAGATACCCCTGGTASTCCACGCCKTCWMACRATGTCTACTRGCTCTTKKGGGTCCTTGAGASTTTAKTGGCCCAKTTAACGASATMAGTAGACCKCCTGGGGAGTRCTGYCRMCASGTTTRAAACTCACATGARTTCACGGGRGCCCKCAAACGCGGGKGKAKCATGTGRTTTAACTCGAAGAAACKCAAAKACYCTTACCTKCTCTTGACATMTYSACAAATSCGCAGAKATSWKCGGAGAGCTSTTCAGACASKKGCAYACWGGYTGCTSCWYGGCTSTTCGTCATCWMRTGTTCGTGMWSATGTTSGGSTAWAMRTCCCCACACACMARCRKSCAYYCCTTTCTCMCTYACTTGCAYAGGCGGGGATAAKCKSYGGGARMCTTGTMAGGATAWMTGATCTASTSAGCAAAGCTGGGAGRGMAGGCKGAGAACGGATCGTCGAGTCCATMGTAGGCCRCGGTACGAATCAGGTCTMACCAACGATGACGWGTGATSACAGTGWTGA</t>
+          <t>GAAASCGGGCGACWRTGCTAGTCGGACGGTGTCACAASGAACTTGTTCCTSGKGAGAMGAGTGGSRGAGGGGTGAGTAGTGTGGGGGGATCTGCCAKATAGAGGGGGATAACCTGTGAAAACKGGSGCTAAYCCCGCAWAACCTCRCAACACCAAAGAGGGGGACTTTCGGGCCTCTCAMTATSGGAAGAACCCAKAGGGGATTATCTTRTGSGCGGGGTAACGGCCCCCCTGCGACAATATCCCTCGCTGGTCAGAGAAGAAGACCSGCCACWGTGGCTCTGASACRCKGCCCACACCCCCACGGGASGCCRCTGTGGAGAATATTGCAMAGTGGGCRCAASCCATATGCCCCTATGCCGCGTGTAARAAAAGSGCTTTCGGGTTGTARAATTTTTTCCGCGGGGAAGAGGGAKATGTGGTTAATACCCGTCTATATAGACTTTCCCCGCAAAAAAAACCSCGGCAATCTCCGTGCCMRCCCCCGCGGTAATACAGAGGGTGCRCGTTTTTATCAAATTTAGKGGGTGTAAAGCMCRCRCGSGCKGTCTGTTATSTCATATGTRATATCCCCGCGTTTMMTCKGAGATCTGCTTTTGAMACTGGCGCGCKTGTCTCTCRTAGAGGGGGGTARAATTCCGTGTGTAGCKGTGATGTGTRTAGAKCTGTRGAAGAATACCTGTSGYRAACGCCGCCCTGTGCACRAASACWGACTCTCGTGTGCKAAMGCGTGGRGCRCACASGAGAWTATATMCCCKGRTTSTCCACCCYRTACRATATSTMYACKTGGGTGTTGTTCYCKTGGAGAGTGTTTTCCAGAKCTCACGCKTTATSTMSACCGYSKGGAGTGTASCGYCRMAGYGTTAAMWCTCATRWGWWKWSACGGGGCGCSCRCACAMKSTGTRGTAGCRTGTKGTTTTATYTMTATRCRCGCRGARMATYWTMYCTACTCGTGAYMTCCAGARAATWTMGCAGATAYGCTTTTTGTGYYTKCGARAACTGWGACACATGCTGCTRCATCGWSTSTCCWCATCCTCGTGGTTGWRAAATGTTGKTKWWRWSTCGCCRCACGAGCACACCYCWTTASTMTTKTTGTTCSCCRGCRATTSCKGTCGRAATCTCAAAGARGAACASTGGCGKKTATAAMCCTRGAGAAAKGTGGCGRWTGACTTMGATCTTACTCRGGCCCTCTYACRTATKATACG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MPM44</t>
+          <t>MPM12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GWSTCGCTCAAGARTGYGGCTCSAGCGAGTGGATTCAGAGCTTGCTCTTGTKAARTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAATCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCAGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTTGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCGGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGASGCWSCMSTWRGGAATCTTCCSCWATGGACGAAARTCTGAAKGARCGGCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTASTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCACKGCTAACTACKTGCCASCWGCCRCGGTTCTACGTATGTGGCAARCGTTATCCGGAATTATTGGGCGTAAAGCGCGCSCMSGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCGTGGAGGGTCATTGRAAACTGGGAGACTTGASTGCAGAASAGGAAASTGSAATTCCWTGTGTAKCGGTGAAATGCGTATAGATATGGAGGATCWCCARTGGCGAATGCKACTTTCTGGTCTGTRMCTGACWCTGAGGCRCGAAAGCGTGGGGAGCMAACASGATTAGATAYCCTGGTARTCCACRCCSTAWACRATGAKTGCTAAGTGTTASAGGGTTTCTSCCCTTTASTGCTGTMKTTMACKCACTAAKCACTCCSCCGGKGAGTACGGSCGCWWKGMTGACACWCWTARGAAWTGACGGGSGCCCGCWCWASCCGTGGAGCATGTGGWTTAATTCGMSCMMCRCGTAKAACCTYASCWGGTCKTGACATCCTCTGCAATRSCCTWTCAGAKATRGGCTATCYKYCTWCGTGAGCAGCAGTRWWCAAGCTRGTGCATGGTYGTCGTCAGCWCWGWCGTTGWGATRYTCGGRWGACGTTCCCKCACCAGCSCSASCCYYTYYKMTCTTCAGWYGYYMTYACTAWGYTGGRGCACTTCCTAWASTGACTGCCTGSCTGWCRGAACYCGTAGAMGTTGYGGCAAKACGTCTAGTTGCACTCGGATKCACCCKCCTCWST</t>
+          <t>GGGCAGGGGCGTCTSATGCAGTCSAGCGATGTGTTGTKAGATTGCTCAKATGARSTTASCGGCGGATGGGTGAGTAACACTTGGGTAACCTGCCCAGGAKACTGGGATAACATTTGGGTAAATACGGCTAATACCGGTGAACCTTTTGAACTGCGCGGTTCRAAATTCAACGGCGGCWTCKGATCTCGCKTCCCGATGGACCCKCGTCRCRGTARCKGCTTRGTGAGGTAACGACTCRTCRGGGTCCCGATGCGTAGATCACCTGARAKGGTGATCRGACACRCTGGGAACGASACMCGGACCMRACTCCTACGGGARGCGGCMRTTGGGAATCTTCCKCAWTGGACSAWACTCTGACSGAGCWRCCCCKCSTGAGTGATGAARGCTTTCKGGTCRTARAACTATRTTGTTMKGGAAGAACAASTGTTASTTGACTGARCTAGCACCGTGACGGTACCTCACCGCAARCCCCCGGCTAACTACGTGCCAKCARCCCCTGTACTACAATCGTTGCAAGCRTTATCCCGAATTATTGGGCRTTAAGTSCGCGCTGGTGGTTTCTTAMKTCTSATGTGAACGCCCACGGCTCAACCGTGGAKGGTCTTTGKARACTGTRASACTTGARTGCAGAGTAGGAGTGTGGAATTCCATGTGTASCKGTRAWATGCRTAGAGATATGGAGGAACWCCWRTGGCAAWGGCGACTTTCTGGTCTGTCACTGACACTGARGCGCGAAAGCGTGGGGAGCAAACCRGATTAGATACCCTGGTAGTCCASCYSTTARGCGATGAKTGCTAAGTGTTACAAGGTTKCCRCCTATCCCTGCTGAAGTTTACGCWYTCARCACTCCRCCTGRRGAGTATGGCCGCRRGGCTGAAACTCCRAKGAATTGACTGGGGGCMCTCMCAAGATRSTGGARCRWGTGGTATCATGCCWARMCASTCGTAWGAACCTGWYCRRGGTCWTGAYCTCCTYCTGAAAMMCYTACAAATRWGSYSTYCTSCTTCKSGASMGYAGTGACAGGTAGGTGCWTGGTTKWTCGTCCKMTMRCTGWCGYGARRCWGCTGGTGTTACGTCSCCRCACMGAKCRCAWCCCGTWSMTCTTTACRTTGCCCWTCCATTAGCTTGCGGCMSCWCSCACGTTGACGTRTCAGCGTGCMAAATCGTKCGAGRMACGTRGSCATKASCGTCAAATCACTMTGWTGCWCCACATGTATGYCACGCCKYTGWCGACA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MPM12</t>
+          <t>MPM13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GGGCAGGGGCGTCTSATGCAGTCSAGCGATGTGTTGTKAGATTGCTCAKATGARSTTASCGGCGGATGGGTGAGTAACACTTGGGTAACCTGCCCAGGAKACTGGGATAACATTTGGGTAAATACGGCTAATACCGGTGAACCTTTTGAACTGCGCGGTTCRAAATTCAACGGCGGCWTCKGATCTCGCKTCCCGATGGACCCKCGTCRCRGTARCKGCTTRGTGAGGTAACGACTCRTCRGGGTCCCGATGCGTAGATCACCTGARAKGGTGATCRGACACRCTGGGAACGASACMCGGACCMRACTCCTACGGGARGCGGCMRTTGGGAATCTTCCKCAWTGGACSAWACTCTGACSGAGCWRCCCCKCSTGAGTGATGAARGCTTTCKGGTCRTARAACTATRTTGTTMKGGAAGAACAASTGTTASTTGACTGARCTAGCACCGTGACGGTACCTCACCGCAARCCCCCGGCTAACTACGTGCCAKCARCCCCTGTACTACAATCGTTGCAAGCRTTATCCCGAATTATTGGGCRTTAAGTSCGCGCTGGTGGTTTCTTAMKTCTSATGTGAACGCCCACGGCTCAACCGTGGAKGGTCTTTGKARACTGTRASACTTGARTGCAGAGTAGGAGTGTGGAATTCCATGTGTASCKGTRAWATGCRTAGAGATATGGAGGAACWCCWRTGGCAAWGGCGACTTTCTGGTCTGTCACTGACACTGARGCGCGAAAGCGTGGGGAGCAAACCRGATTAGATACCCTGGTAGTCCASCYSTTARGCGATGAKTGCTAAGTGTTACAAGGTTKCCRCCTATCCCTGCTGAAGTTTACGCWYTCARCACTCCRCCTGRRGAGTATGGCCGCRRGGCTGAAACTCCRAKGAATTGACTGGGGGCMCTCMCAAGATRSTGGARCRWGTGGTATCATGCCWARMCASTCGTAWGAACCTGWYCRRGGTCWTGAYCTCCTYCTGAAAMMCYTACAAATRWGSYSTYCTSCTTCKSGASMGYAGTGACAGGTAGGTGCWTGGTTKWTCGTCCKMTMRCTGWCGYGARRCWGCTGGTGTTACGTCSCCRCACMGAKCRCAWCCCGTWSMTCTTTACRTTGCCCWTCCATTAGCTTGCGGCMSCWCSCACGTTGACGTRTCAGCGTGCMAAATCGTKCGAGRMACGTRGSCATKASCGTCAAATCACTMTGWTGCWCCACATGTATGYCACGCCKYTGWCGACA</t>
+          <t>GTGSACSGGCCGTATSATGCTGGTYSAGCGATGGATWGWGAGATTGCTCTTATGAAKTTAGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATRAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCAKTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGAMTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCKTGACGGTACCTAACCRGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGGAGTACGGCCGCRAGGCTGAAACTCAAAGGATTGACKGGGGGCCCGCACAAGCGGTGGAGCAWGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCRGTCTTGACATCCTCTGAAAACCCTAGAGATAGGCTTCTCCTTCGGGAGCAGAGTGACAGGKGGTGCATGGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTAGTCCCGCAACGAGCGCAACCCTTGATCTAGTTGCATCATAAGCTCGGCMCTCTAAGTGACTGCAGKGACAATCTGAGACGGTGGGGCATGACGTTCAATCACTCTAKGCYCGCC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MPM33</t>
+          <t>MPM14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CGGCGGRGGCRKWMYGATKCWAGKCTSASKSGYATCTKSTRAYRCTAGTGGCAGACGGGTGAGTAACACSTGGGAACGTACCTTTCGGTTCGGAATAATACAGGGAAACTTGTACTAATACCGGATACGCCCTTCGGGGGAAAGATTTATCGCCGATAGATCGGCCCGCGTCTGATTAGCTAGTTGGTGAGGTAATGGCTCACCAAGGCGACGATCAGTAGCTGGTCTGAGAGGATGATCAGCCACACTGGGAMTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTGGGGAATATTGGACAATGGGCGAAAGCCTGATCCAGCCATGCCGCGTGTGTGATGAAGGCCTTAGGGTTGTAAAGCACTTTTGTCCGGGAAGATAATGACTGTACCGGAAGAATAAGCCCCGGCTAACTTCGTGCCAGCAGCCGCGGTAATACGAAGGGGGCTAGCGTTGCTCGGAATCACTGGGCGTAAAGGGCGCGTAGGCGGACTCTTAAGTCGGGGGTGAAAGCCCAGGGCTCAACCCTGGAATTGCCTTCGATACTGAGAGTCTTGAGTTCGGAAGAGGTTGGTGGAACTGCGAGTGTAGAGGTGAAATTCGTAGATATTCGCAAGAACACCAGTGGCGAAGGCGGCACAACTGGTCCGATACTGACGCTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAATGCCAGCCGTTGGGGTGCATGCACCTCAGTGGCGCAGCTAACGCTTTAAGCATTCCGCCTGGGGAGTACGGTCGCAAGATTAAAACTCAAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGCAGAACCTTACCAGCTTTTGACATGTCCGGTTTGATCGGCAGAGATGCCTTTCTTCAGTTCGGCTGGCCGGAACACAGGTGCTGCATGGCTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTTAAGTCCCGCAACGAGCGCAACCCTCGCCCCTAGTTGCCATCATTCAGTTGGGAACTCTAGGGGGACTGCCGGTGATAGCCYGCGAGGAAGGTGGGATGACGTCAAGTCTCATGGCCGTTACAGCTGGCTAMCMACGTGCTAMCATGCGTGACATTGGCAGCGAAGGASGATCCAGGTGCATA</t>
+          <t>GGGSCCARGCGTATGATGCWGGYYSAGYSARTGSATKGWRASAYYGSTCTTATGAAKTTRGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGAGTACGGCCGCAAGGCTGAAACTCAAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCAGGTCTTGACATCCTCTGAAACCCTAGAGATAGGGCTTCTCCTTCGGGAGCAGAGKGACAGGTGGTGCATGGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGGTTAAGTCCGCACGAGCGGCAACCTTGGATCTARGTGCATCATTAAGTGGGCACTCTAGGKGACTGCGTGMCACGGAGGAGGGTGGGATGACGTCAATCATCAKGCCTTAKGAACCKGGGGGCSWTAC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MPM45</t>
+          <t>MPM16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRCSGGGTCWAKCATGCACTCSAGCGGACASATGGGAGCTTGCTCCCKGAASTCASCSGCGGACKGGTGAGTAACACKTGGGCAACCTGCCTGTAGACTGGGATAACTCCKGGAAACCGGGGCTAATACCGGATAATTCTTTTCCTCTCATGAGGAAAAGCTGAAAGATGGTTTCGGCTATCACTTACAGATGGGCCCGCGGCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCCACGATGCGTAGCCRACCTGARAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCASACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACSAAASTCTGACGGASCAACGCCGCGTGAGTGATGAAAGTTTTCSGATCRTMWAACTMYGTTGTCWGGGAASAACMAKTACCSRASTRACTGCCKGTMCCTTGACGGTRCCTGACCWRAAWSCCACGGCTAACTACGTGCCMRCRACCKCGGTAAGACSTASGTGGCAAGCGTTGTCCRGAATTATKGGGCRTMAAKCGCGCGCRSGCSGTTCCWTWMSTCTGATKTKAAASCCCCCGGCTCWACCSGGGAGGGTCATTGSAAACTGGGGAACTTGARTGCMKAAGAGAAGARTGSAATTCCACRTGTAGCGSTSAAATGCGTAGAGATGTGGARGAACACCWRTGGCKAATGCGACTCTYTGGTCTGTAACTGACGCTGAGGCGCGAAAGCGTGRGGAGCWMACAKGATTAGATACCCTGGTASTCCATCCGTAAACGATSASTGCTAMRTGTTAGAGGGTTTCCKCYCTTTASTGCTKCAGCWTACGCATTAWGCACTSMCCCTGGGGSAGTACGAGCCGCRGGCTGAACTCAAGGAATTGACRGGGGCSCGCMCRSCKGTGGAGCATGWGGTYTAGWTMMASCRCGCSCAGAWCTTACCRCGTCTKSASRTCTCCWGWYACCCTRGMKATACKGGYSTTSYMCTTYSGGGGACACGGAYGACWAGTGGSTGCACGKGTTGTCKTCCGSWCGWSTCATKWGWCGTWGSSGTAAGTCCTCGCAACGWGCGCAGCCGTTGATCTTACTGCCTAKCCRTCCAGTTGGGCACGWCTMMGTTGACTGCGTTSACTAGCAGGYMTGAGCGTGGGCATGACKTCRATYCRGTCATGAACTCCCCTWATCTGTACG</t>
+          <t>GTCAACAGCAGTTGATYCTGGCTCAGTCGTMACAAGGTAGCACCTGSCTTTGATSMTGGCTCGCGTCGTAAACGGGCCCCTTGGTACTGAGTTTCCCCGGGAAACTGGGAGTAATACCGTAYGTGGTCKAKAGACGAAAGATTTATCGCCAAAGGATCGGCCCGCGTTGGATTAGGTAGTTGGTGGGGTAATGGCCTACCAAGCCGACGATCCATAGCTGGTTTGAGAGGATGATCAGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTGGGGAATCTTAGACAATGGGGGAAACCCTGATCTAGCCATGCCGCGTGATCGATGAAGGCCTTAGGGTTGTAAAGATCTTTCAGTGGGGAAGATAATGACTGTACCCACAGAAGAAGCCCCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGGGGCTAGCGTTGTTCGGAATTACTGGGCGTAAAGCGCACGTAGGCGGATCAGAAAGTCAGAGGTGAAATCCCAGGGCTCAACCTTGGAACTGCCTTTGAAACTCCTGATCTTGAGGTCGAGAGAGGTGAGTGGAATTCCGAGTGTAGAGGTGAAATTCGTAGATATTCGGAGGAACACCAGTGGCGAAGGCGGCTCACTGGCTCGATACTGACGCTGAGGTGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAATGCCAGTCGTCGGGTAGCATGCTATTCGGTGACACACCTAACGGATTAAGCATTCCGCCTGGGGAGTACGGCCGCAAGGTTAAAACTCAAAAGGAATTGACGGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGCAGAAMCCTTACCAACCCTTGACATGGCAGTGACCGTTCCAGAGATGGTCCTTTCTCGCAGGAGACACTGCACACAGGTGCTGCATGGCTGTCGTCRGCTCGTGTCGTGAAGATGTTCGGTTAAGTCCGGCAACGAGCGCCACCCCACGCCCTTCAGTTGCCAGCAGTTCCGSTGGGCACTCTGAAAGGAACTGCCGGGTGATAAGCCGGAGAAGGTGGTGATGACGTCAAGTCCTCATGGCCTTACGGGGTTGGCTGACCACSGKKGCCTACMAATGGGTKGGTGACAATGGGTAATTCGCAGAGGAGCCATCTYTACRATTTCTCRC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MPM13</t>
+          <t>MPM32</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GTGSACSGGCCGTATSATGCTGGTYSAGCGATGGATWGWGAGATTGCTCTTATGAAKTTAGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATRAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCAKTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGAMTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCKTGACGGTACCTAACCRGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGGAGTACGGCCGCRAGGCTGAAACTCAAAGGATTGACKGGGGGCCCGCACAAGCGGTGGAGCAWGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCRGTCTTGACATCCTCTGAAAACCCTAGAGATAGGCTTCTCCTTCGGGAGCAGAGTGACAGGKGGTGCATGGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTAGTCCCGCAACGAGCGCAACCCTTGATCTAGTTGCATCATAAGCTCGGCMCTCTAAGTGACTGCAGKGACAATCTGAGACGGTGGGGCATGACGTTCAATCACTCTAKGCYCGCC</t>
+          <t>TCRGGCAGGCCTTACCATGCAAGTCGARCGATGATTWTCTRACTTGCTAGCKAASAGKAGTGTCKGACGGGTGAGTAACCCTTTRGAATCTGCCTCCTATTGGGGGATACCGCKGGGAAACTCRAWGTCTACCGACCACRACCTGCGAGTGAAAGGGGGATGCGCTCTTGCTATCCTATGAGCCAWTATCTRATTAGCTRGTTRGTGGGGCAMMRGCCCACCMAKGCCACGATSKKTWRCTAGGATGAKAGGACGATCWGTCACWCCGAAACTGACACRASGCCCRGACTCCGCCGGGATGCRGCATTGGGGACTATGGGACCATGGGGGATCCCCCCATCCCGCCTTGCCGARTGTGGSAATAAGGTCTTTTGGTTGTTTARCACTTTARGAAGGGAGGAGAGGCTAATGGTTAATACTTTTTCGATTCCACSTTACCAGCCRAATAATCACCCGCTAACTCTGTGCCAGCTACCACRGTAATACCAAGGGTGCRAGCGTTTTTCKGAATTTCWGGGCSTAAARCGAGTGTWKGTGGCTCATTAGTTCACATGTCAAATCCCCGGGCTTAACCTGGGAACTGAATGTGATACTGGTGTGTGCTKAAATGGGTGAAAAGGAACTAGAATTCCAGGTGTAYGCGSTAAARATGCTTAAAGATCTGGATGAATACCGATGGCCAAGGCAGCTTCMTGGCATAATATTGACACTGAGATTCGAGAGCGTGGGTATTAKACACGATTAGATACCCCTGGTASTCCACGCCKTCWMACRATGTCTACTRGCTCTTKKGGGTCCTTGAGASTTTAKTGGCCCAKTTAACGASATMAGTAGACCKCCTGGGGAGTRCTGYCRMCASGTTTRAAACTCACATGARTTCACGGGRGCCCKCAAACGCGGGKGKAKCATGTGRTTTAACTCGAAGAAACKCAAAKACYCTTACCTKCTCTTGACATMTYSACAAATSCGCAGAKATSWKCGGAGAGCTSTTCAGACASKKGCAYACWGGYTGCTSCWYGGCTSTTCGTCATCWMRTGTTCGTGMWSATGTTSGGSTAWAMRTCCCCACACACMARCRKSCAYYCCTTTCTCMCTYACTTGCAYAGGCGGGGATAAKCKSYGGGARMCTTGTMAGGATAWMTGATCTASTSAGCAAAGCTGGGAGRGMAGGCKGAGAACGGATCGTCGAGTCCATMGTAGGCCRCGGTACGAATCAGGTCTMACCAACGATGACGWGTGATSACAGTGWTGA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MPM34</t>
+          <t>MPM33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CCTGGGGGACATMTSAATGCAGTCGAACSGTCTTTTAGGAGAAGTGGCSCACGGGTGAGTAACACGTAACTGACCTGCCCCAAAGTCSCGGATMAYTGGCATGAAAGTCCWGCTRATMCGTGATGTGCTGTCAKATTTTGTTCTGCCAGTMAAGGTTTACTGCTTTGGGATGGGGTTGCATTCCWTCMRCTARTTGGCGGGGTAAAGGCCCWCCRMKGCGACKACKGATAGCCRGCCTGAGAGGGTGGCCGGCCACGKGGGCACTGAGACACKGGTCCCACTCCTACSGGAGGCWSCWSTTASGAATCTTCCMCRWTGGGCSARAGCCTGATGGAGCRACSCCGCRTGAGGGATSAAGGTTCTCGGATCKTAAACCTCTGAATCMRGGACSAAASACSCSCAAGCGGGATGACGGTACCTGARTAATAGCACCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGGTGCAAGCGTTACCCGGAATCACTGGGCKTAAAGGGCSTGTAGGCKGATCSTTAAGTCTGGTTTTAAAGACCGTGGCTCAACCACKGGAGTGGACTGGATACTGGCAATCTTGACCTCTGGASAGGTAACTGGAATTCCTGGTGTAGCGGTGGAATGCRTMSATACCAKGAGGAACACCAATGGYKAAGGCWAGTTACTGGACAGAARGTGACGCTGAGGCGCGAAAGTGTGGGGAGCGMACCGGATTAGATACCCGGGTAGTMCACACCCTAAACGATGTACGTTGGCTGACCGCAKGATGCTGTGGTTGGCKAARCTAACGCKATMACGTACCGCCTGGGAAGTACGGCCGCMAGGTTGMAACTCAMKGAATTGACTGGGGCCCGCACWAKCGGTGGAGCATGWSGTTTAATTCKAAGCAMCGYKTAAGAACCWTTACMAKGTCKTGACATGCATGGMACYYTCSCRGAGATGSGGAGGGTGCSCCCTCGRGKAACCMTGACACAKGTGCTGCRTGGCCTGTCGTCAGCTCGYGTCGTKGAKMTGYTGGGWTTAGTMCSGTCTACGAKCGCARMCCTTTGCTTCCAGTTGCAGCRTCAGTTYGGGCASTYTKGSAGCGAACTGCGTAWGAATGTTAGGMKGCATGGCTGCGATGACGATCTRGWTCMGGCATKGTCCATRCACTGGCTTMGACACGCTKTCTTACAAAGTCSGGAYAA</t>
+          <t>CGGCGGRGGCRKWMYGATKCWAGKCTSASKSGYATCTKSTRAYRCTAGTGGCAGACGGGTGAGTAACACSTGGGAACGTACCTTTCGGTTCGGAATAATACAGGGAAACTTGTACTAATACCGGATACGCCCTTCGGGGGAAAGATTTATCGCCGATAGATCGGCCCGCGTCTGATTAGCTAGTTGGTGAGGTAATGGCTCACCAAGGCGACGATCAGTAGCTGGTCTGAGAGGATGATCAGCCACACTGGGAMTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTGGGGAATATTGGACAATGGGCGAAAGCCTGATCCAGCCATGCCGCGTGTGTGATGAAGGCCTTAGGGTTGTAAAGCACTTTTGTCCGGGAAGATAATGACTGTACCGGAAGAATAAGCCCCGGCTAACTTCGTGCCAGCAGCCGCGGTAATACGAAGGGGGCTAGCGTTGCTCGGAATCACTGGGCGTAAAGGGCGCGTAGGCGGACTCTTAAGTCGGGGGTGAAAGCCCAGGGCTCAACCCTGGAATTGCCTTCGATACTGAGAGTCTTGAGTTCGGAAGAGGTTGGTGGAACTGCGAGTGTAGAGGTGAAATTCGTAGATATTCGCAAGAACACCAGTGGCGAAGGCGGCACAACTGGTCCGATACTGACGCTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAATGCCAGCCGTTGGGGTGCATGCACCTCAGTGGCGCAGCTAACGCTTTAAGCATTCCGCCTGGGGAGTACGGTCGCAAGATTAAAACTCAAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGCAGAACCTTACCAGCTTTTGACATGTCCGGTTTGATCGGCAGAGATGCCTTTCTTCAGTTCGGCTGGCCGGAACACAGGTGCTGCATGGCTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTTAAGTCCCGCAACGAGCGCAACCCTCGCCCCTAGTTGCCATCATTCAGTTGGGAACTCTAGGGGGACTGCCGGTGATAGCCYGCGAGGAAGGTGGGATGACGTCAAGTCTCATGGCCGTTACAGCTGGCTAMCMACGTGCTAMCATGCGTGACATTGGCAGCGAAGGASGATCCAGGTGCATA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MPM46</t>
+          <t>MPM34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSSGCGGTCTWAKCRTGYRACTCGAGCGAGTGGATTMAGAGCTTGCTCTTGTKAMRTTAKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCRGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTWGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCKGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGAGGCWSCMSTARGGAATCTTCCSCWATGGACGAAARTCTGAAKGARCGRCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTASTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCACKGCTAACTACKTGCCASCAGCCRCGGTAATACGTAKGTGGCAARCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCMSGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCGTGGAGGGTCMTTGGAAACTGGGAGACTTGASTGCAGAASAGGAAASTGGAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATSGAGGAACWCCARTGGCGAAKGCKACTTTCTGGTCTGTAACTGACWCTGAGGCRCGAAAGCGTGGGGAGCAAACASGATTAGATACCCTGGTARTCCACRCCSTAWACRATGAKTGCTAAGTGTTWSAGGGTTTCCSCYCTTTASTGCTGAAGTTMACKCWYTAAKCACTCYGCCTGGKGAGTACGGSCGCWWTGCTGAACWCWTAGGAAWTSACCGGSGCCCGCWYWAGCCSTGGARCATSTGGTTTAATTCGAGCAACRCGTATAACCTYAGCCWGGTCKTGACATCCTTCTGCAWACCCTWTCAGATTAGGCTTCTYCTTCGKGASCAGAKTGWCAAGTRGTGCATGTTSTTCGTCARCWCWGWCGTKAGATRTCSGATTAMGTCMKCCAYGAGCSCSACCTYTTYGAYSYTAGATTGTYMKYACTTTAKGYTGAGCATTCTATASTGMCTGCTGCKTACCGACYGTAGGACGTTGTAKTACGTCGAKTCATCATKACCCCTTTAYTGAASCKT</t>
+          <t>CCTGGGGGACATMTSAATGCAGTCGAACSGTCTTTTAGGAGAAGTGGCSCACGGGTGAGTAACACGTAACTGACCTGCCCCAAAGTCSCGGATMAYTGGCATGAAAGTCCWGCTRATMCGTGATGTGCTGTCAKATTTTGTTCTGCCAGTMAAGGTTTACTGCTTTGGGATGGGGTTGCATTCCWTCMRCTARTTGGCGGGGTAAAGGCCCWCCRMKGCGACKACKGATAGCCRGCCTGAGAGGGTGGCCGGCCACGKGGGCACTGAGACACKGGTCCCACTCCTACSGGAGGCWSCWSTTASGAATCTTCCMCRWTGGGCSARAGCCTGATGGAGCRACSCCGCRTGAGGGATSAAGGTTCTCGGATCKTAAACCTCTGAATCMRGGACSAAASACSCSCAAGCGGGATGACGGTACCTGARTAATAGCACCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGGTGCAAGCGTTACCCGGAATCACTGGGCKTAAAGGGCSTGTAGGCKGATCSTTAAGTCTGGTTTTAAAGACCGTGGCTCAACCACKGGAGTGGACTGGATACTGGCAATCTTGACCTCTGGASAGGTAACTGGAATTCCTGGTGTAGCGGTGGAATGCRTMSATACCAKGAGGAACACCAATGGYKAAGGCWAGTTACTGGACAGAARGTGACGCTGAGGCGCGAAAGTGTGGGGAGCGMACCGGATTAGATACCCGGGTAGTMCACACCCTAAACGATGTACGTTGGCTGACCGCAKGATGCTGTGGTTGGCKAARCTAACGCKATMACGTACCGCCTGGGAAGTACGGCCGCMAGGTTGMAACTCAMKGAATTGACTGGGGCCCGCACWAKCGGTGGAGCATGWSGTTTAATTCKAAGCAMCGYKTAAGAACCWTTACMAKGTCKTGACATGCATGGMACYYTCSCRGAGATGSGGAGGGTGCSCCCTCGRGKAACCMTGACACAKGTGCTGCRTGGCCTGTCGTCAGCTCGYGTCGTKGAKMTGYTGGGWTTAGTMCSGTCTACGAKCGCARMCCTTTGCTTCCAGTTGCAGCRTCAGTTYGGGCASTYTKGSAGCGAACTGCGTAWGAATGTTAGGMKGCATGGCTGCGATGACGATCTRGWTCMGGCATKGTCCATRCACTGGCTTMGACACGCTKTCTTACAAAGTCSGGAYAA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MPM14</t>
+          <t>MPM35</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GGGSCCARGCGTATGATGCWGGYYSAGYSARTGSATKGWRASAYYGSTCTTATGAAKTTRGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGAGTACGGCCGCAAGGCTGAAACTCAAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCAGGTCTTGACATCCTCTGAAACCCTAGAGATAGGGCTTCTCCTTCGGGAGCAGAGKGACAGGTGGTGCATGGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGGTTAAGTCCGCACGAGCGGCAACCTTGGATCTARGTGCATCATTAAGTGGGCACTCTAGGKGACTGCGTGMCACGGAGGAGGGTGGGATGACGTCAATCATCAKGCCTTAKGAACCKGGGGGCSWTAC</t>
+          <t>CWAKGSSKCTACCATGCMGTCSAACGAKGACCCGGTGCTTGCACCGGTGATTARTGGCSAACGGGTGAKTAACACGTGAGTAACCTGCCCTTAACTCTGGGATAAGCCTGGGAAACTGGGTCTAATACCGGATATGACTCCTCATCGCATGGTGGGGGGTGGAAAGCTTTATTGTGGTTTTGGATGGACTCKCKGCCTATCASCTTGTTGGTGAGGTAATGGCTCACCWRKGCSACSACKGGTAGCCGGCCTGARAGGGTGACCGGCCACRCTGGGACTGAGACACGGCCCASACTCCTACSGGAGGCAKCASTGGGGAATATTGCMCAATGGGCSCAAGCCTGATGCMKCGACRCCKCGTGAGGGATGACSGCCTTCKGGTTGTAAACCTCTWTCAKTASGGAASAAGCGAARRTGACGGTMCCTGCMSAASAAKCRCCSGCYAACTACGTGCCAGCASCCKCKGTAATACGTASGGCGCAAGCKTTATCCKGAATTATTGGGCKTAAAKAGCTCSTARGCRGTTTGTCGCSTCTGCCGTGAAAGTCCGGGGCTCAACTCCSGATCTGCKGTGGGTACKGGCRSACTASASTGATGTAGGGGARACTGGAATTCCTGGTGTAGCGSTGAAATGCKCAGATRTCMCGARGAACACCKATSGCRAAKGCASGTCTCTGGGCATTAACTGACSCTRASGAGCKAAMGCATGGGGAGCKAACWSGAYTASATACCCTGGTRSTCCATGCCGTAMACKTTSGGCACTAGGTGTGSSGGACATTCCMCSTTTTCCGCGCCRTASCTRRMRCACTAAKTGCCCCKCCWGGGGAGTACTGYCGCARKGCTMAMACTCAAACGARTTGACAGGSGCCCACWYWMGCGGCRGASCAKACRGATTAAYTCSATGCWAYKYRMASAMMCTTACTMAMGMTWGACATGGSCCSSACCGKRCTAGSAAACASTGCTTKCCMCTTWGKKGCCCGGKTSMYACGTSGTGCAKGRCYGTCRYYWKCTCGTSTCSYSASMTGATAGGARKTAAKWCCMCGCAACAAGCCGCWACYCCYCYTTCCAWGCTTKCCCTSCCCGYTAAKSGTCSSGGSMCTCRTGGSAKAACTGCCCGCGTCWACCCTCCSMAGYACGRTKGGGRCTACGTTCAAAWCATCCAAGCGCGTTCAGTTCATGGACTCAGCAGCTACAAATGGCTCGCTMTAKCATAAGYA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MPM35</t>
+          <t>MPM37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CWAKGSSKCTACCATGCMGTCSAACGAKGACCCGGTGCTTGCACCGGTGATTARTGGCSAACGGGTGAKTAACACGTGAGTAACCTGCCCTTAACTCTGGGATAAGCCTGGGAAACTGGGTCTAATACCGGATATGACTCCTCATCGCATGGTGGGGGGTGGAAAGCTTTATTGTGGTTTTGGATGGACTCKCKGCCTATCASCTTGTTGGTGAGGTAATGGCTCACCWRKGCSACSACKGGTAGCCGGCCTGARAGGGTGACCGGCCACRCTGGGACTGAGACACGGCCCASACTCCTACSGGAGGCAKCASTGGGGAATATTGCMCAATGGGCSCAAGCCTGATGCMKCGACRCCKCGTGAGGGATGACSGCCTTCKGGTTGTAAACCTCTWTCAKTASGGAASAAGCGAARRTGACGGTMCCTGCMSAASAAKCRCCSGCYAACTACGTGCCAGCASCCKCKGTAATACGTASGGCGCAAGCKTTATCCKGAATTATTGGGCKTAAAKAGCTCSTARGCRGTTTGTCGCSTCTGCCGTGAAAGTCCGGGGCTCAACTCCSGATCTGCKGTGGGTACKGGCRSACTASASTGATGTAGGGGARACTGGAATTCCTGGTGTAGCGSTGAAATGCKCAGATRTCMCGARGAACACCKATSGCRAAKGCASGTCTCTGGGCATTAACTGACSCTRASGAGCKAAMGCATGGGGAGCKAACWSGAYTASATACCCTGGTRSTCCATGCCGTAMACKTTSGGCACTAGGTGTGSSGGACATTCCMCSTTTTCCGCGCCRTASCTRRMRCACTAAKTGCCCCKCCWGGGGAGTACTGYCGCARKGCTMAMACTCAAACGARTTGACAGGSGCCCACWYWMGCGGCRGASCAKACRGATTAAYTCSATGCWAYKYRMASAMMCTTACTMAMGMTWGACATGGSCCSSACCGKRCTAGSAAACASTGCTTKCCMCTTWGKKGCCCGGKTSMYACGTSGTGCAKGRCYGTCRYYWKCTCGTSTCSYSASMTGATAGGARKTAAKWCCMCGCAACAAGCCGCWACYCCYCYTTCCAWGCTTKCCCTSCCCGYTAAKSGTCSSGGSMCTCRTGGSAKAACTGCCCGCGTCWACCCTCCSMAGYACGRTKGGGRCTACGTTCAAAWCATCCAAGCGCGTTCAGTTCATGGACTCAGCAGCTACAAATGGCTCGCTMTAKCATAAGYA</t>
+          <t>GWRRAMSRGGCCTTAMSATGCAGTCGAGGGGTATAGTTCTTCGGAACTAGAGACCGGCGCACGGGTGCGTAAYGYGTATGCARTCTACCTTTCACAGAGGGATAGCCCRGAGAAATTTGGATTAATACCTCATAGTATAATTGAATGGCATCATTTAATTATTAAAGTCACAACGGTGAAAGATGAGCATGCGTCCCATTAGCTTGTTGGTAAGGTAACGGCTTACCAAGGCRACGATGGGTAGGGGTCCTGAGAGGGAGATSCCCCACACTGGTACTGAGACACSGACCAGACTCCTACGGGAGGCAGCAGTGAGGAATATTGGTCAATGGGCGCAAGCCTGAACCAGCCATGCCGCGTGCAGGATGACGGTCCTAWGGATTGTAAACTGCTTTTGTACAGGAAGAAACACTGGTTCGTGAACCAGCTTGACGGTACTGTAAGAATAAGGATCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGATCCAAGCGTTATCCGGAATCATTGGGTTTAAAGGGTCCGTAGGCGGTCAGATAAGTCAGTGGTGAAAGCCCATCGCTCAACGGTGGAACGGCCATTGATACTGTCTGACTTGAATTATTAGGAAGTAACTAGAATATGTAGTGTAGCGGTGAAATGCTTAGAGATTACATGGAATACCAATTGCGAAGGCWGGTTACTACTAATGGATTGACGCTGATGGACGAAAGCGTGGGTAGCGAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGGATACTAGCTGTTGGGAGCAATCTCASTGGCTAAGCGAAAGTGATAARTATCCCACCTGGGGAGTACGTTCGCAAGAATGAAACTCAWAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGATGATACGCGAGGAACCTTACCAAGGCTTAAATGTAGATGGACCGGTTTGGAAACAGATCTTTCKCAAGACAATTTACAAGGTGCTGCATGRTTGTCGTCAKCTCGTGCCGTGAGGTGTCWGTTAAGTCCTATACGAGCGCAACSCCCTGYTGTTAGTTGSCAKCGAGTCATGGTCGGGWAGCTCTACGAGACTGCTAGYTGCAAACTGTKAGGGAATGGTGGTGATGACGTTCAAAATCATYAYTGAGCGTTAACGACATGGGCCTRACCACGTGCTACATGGTCCGGTAGCTARAGACCRTAGCTACT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MPM47</t>
+          <t>MPM38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GGKGCGGKCAAKCRTGYGGSTCSAGCGAGTGGATTCAGAGCTTGCTCTTGTKAMRTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCAAAAGACTGGGATAACTCCGGGAATCGGGGCTACTACCGGATAACATTTTGAACTGCATGGTTCCAAATTGAAATGCGGCTTCAGCTGTCACTTATGGATGGACCCSCRTCKCRYTAKCTTGTTGGTGAKGTAACSGCTCAYCGWRGCAMCKATGCRTASCCGACCTGARAGGGTGATCKGACWCACTGGGACTGASACMCKGCCCCGACTCCTACSGGASGCTSCMSTARGGAATCTTCCSCWATGGACGAAARTCTGAATGARCGGTTCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAASCTGGCACCTTGACGGTACCTAACCASAAAGGTTTTGCTAACTACGTGCCACCWGCCGCGGTAATACGTATGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCASGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCRTGGAGGGTCMTTGGAAACTGGGAGACTTGAGTGCAGAASAGGAAAGTGSAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATSGAGGATCWCCARTGGCGAATGCKACTTTCTGGTCTGTRACTGACWCTGAGGCRCGAAAGCGTGAGGAGCCWTCRSGATTAGATACCCTGGTAGTCCACRCCGTATACRATGAKTGCTAAGTGTTASAGGGTTTCCSCCCTGTASTGCTGTMKTTMACKCWYTAAKCACTCCCCCTGGKKGAGTACGGSCGCWWTGMTGTCACACWWAGGAATTGACCGGGSGCSCGCWCTAGCSGTRGAGCATSTGGATTAATTCTGMCMCACCRCGTAKAACCKYASCWGGTCGTCGACATCCTCTGCAAAASCCTATCTGATWGGGCTTCKCCTWCGTGAGCAGCATTGWCAAGSTGGYRCATGTTGTCSTCAGCTACGWGWCKTKWGMATRYTCGGGAWTGACGTCCMKCACYCAGCSCGASCTCTKYKMTCTTCAGATYGTYCAKTCWCTTWAGCTGGAGCACTCCCWASCTGAMCTGCTGCTGTMCGACTCGAGAMGGTGCGCAATKACGTCGAATGCAKCGATGCMCCCTTATT</t>
+          <t>GGAAGCAGKCTAAATGCAGTCSAACGGTGTAKCMGAGCTTGCTCTGTGGATCSTGGTRAAGSGGTGARTAACACSTGAGCAACCTGCCCCTGACTCTGGGATMASCGCTRGAAACGGCKTCTAAYACTGGATATGASCTGCGATCCCAYGGGCCKCATTTGGAAAGATTTTTCKGTCTGGGATGGGCTCAYTGSCKATCAACTKGTTGGTGAGGTAATGGCTCMCCARSGCGTCTACKGGTAGCCGGCCTGARAGGGTGACCGGCCACACTGGGACTGARACTCGGCCCASACTCCYACSGGAGGCASCACTGGGGAATATTGCACRATGGGCGAAAGCCTGATGCRTCAACACCGCSTGAGGGATGACKGCCTTCGGGTTGTAAACCTCTTTTAGCWGGGAAGAAGCGAAAGTGACKGTACCTGCAKAAMAAGCGCCGGCTAACTACATGCCAKCCCCCKCGGTAATACRTARGGCACARGCCTTATCCTGAATTATTGGGCGTAAAGAGCTCSTAKGCKGTTTGTCGCTTCTGCTGTGAAATCCCRACGCTCRACCTCRGGTCTGCATTGGGTACGGGCMKACWARASTGCRGTRKGGGAGATTGGGATTCCTGGTGTAGCGGTGGAATGCGCAGATWTCAGGAGGAACACAGATCGCGAAGGCAGATCTCTGGGCCGTTACTGACGCTSAGGAGCKAAASGGTGGGGAGCAAACMAGCTTAGATACCCTGGTAGTCCACCCCGTACACTTTGGGAACTAGTTGTGGGGTCCATTCYCTTGATTCCSTGACRCAGCTSYRCMCAATTTCCCCCCCTGGGGAGTACTGCCGCARGCTAAAAACTCAAAGGAATTGACRGGGACGCKSCMCWMGCRGCGGAGCAWGCGGATTWATTWCKATGCACRCSCAKAAMMTTAYCAMCGCTTGACRTMTWCYAKAACGTGCCCAAATRGTCAACTCTYTKGACWCKCGTAWMCTSGTYGTGCATGGTTSRTCGWCAKCTCGYTKCCKTKMGAYGTWTCGAKATGATSTMCCTCCAMCRAGSCCAACCMYCCCYTMTRYSTMGCTCRCCACSTMMTGGMTGGGRACKMAYKSKGAWGMWGACCGMSAKCMACWCCATACCGAMAGGWGGGTAGTGAACGTCAATTCATCRGWGCCCGTTRCTGWCTCGGCTCGTTSCACTGCCAGCCTACCATTCGWGCGAGCTTMCCGW</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MPM16</t>
+          <t>MPM39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GTCAACAGCAGTTGATYCTGGCTCAGTCGTMACAAGGTAGCACCTGSCTTTGATSMTGGCTCGCGTCGTAAACGGGCCCCTTGGTACTGAGTTTCCCCGGGAAACTGGGAGTAATACCGTAYGTGGTCKAKAGACGAAAGATTTATCGCCAAAGGATCGGCCCGCGTTGGATTAGGTAGTTGGTGGGGTAATGGCCTACCAAGCCGACGATCCATAGCTGGTTTGAGAGGATGATCAGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTGGGGAATCTTAGACAATGGGGGAAACCCTGATCTAGCCATGCCGCGTGATCGATGAAGGCCTTAGGGTTGTAAAGATCTTTCAGTGGGGAAGATAATGACTGTACCCACAGAAGAAGCCCCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGGGGCTAGCGTTGTTCGGAATTACTGGGCGTAAAGCGCACGTAGGCGGATCAGAAAGTCAGAGGTGAAATCCCAGGGCTCAACCTTGGAACTGCCTTTGAAACTCCTGATCTTGAGGTCGAGAGAGGTGAGTGGAATTCCGAGTGTAGAGGTGAAATTCGTAGATATTCGGAGGAACACCAGTGGCGAAGGCGGCTCACTGGCTCGATACTGACGCTGAGGTGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAATGCCAGTCGTCGGGTAGCATGCTATTCGGTGACACACCTAACGGATTAAGCATTCCGCCTGGGGAGTACGGCCGCAAGGTTAAAACTCAAAAGGAATTGACGGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGCAGAAMCCTTACCAACCCTTGACATGGCAGTGACCGTTCCAGAGATGGTCCTTTCTCGCAGGAGACACTGCACACAGGTGCTGCATGGCTGTCGTCRGCTCGTGTCGTGAAGATGTTCGGTTAAGTCCGGCAACGAGCGCCACCCCACGCCCTTCAGTTGCCAGCAGTTCCGSTGGGCACTCTGAAAGGAACTGCCGGGTGATAAGCCGGAGAAGGTGGTGATGACGTCAAGTCCTCATGGCCTTACGGGGTTGGCTGACCACSGKKGCCTACMAATGGGTKGGTGACAATGGGTAATTCGCAGAGGAGCCATCTYTACRATTTCTCRC</t>
+          <t>GGGGGGGRRSCRGTAYSATGCTMGTCSAACKGCGAAGAGARCTCAGCTCTSKKGRTCAGTGGCGAACGGGTGAGTAACACRTGAGAAATCTGCCCCTGAYTCGGGAATAACCGCTGGAAACSGGATCWAAWACCSGATACAACCTGCGATGGCATCTGCGGATSCTGGAACCAACTTCTGTTGGGGATGASCTTGTGGGATTTCCTCTTKTTKGTGGGGTAATGGCTCMCCRGSGCCTCKACGGGTMKCCKGCCAGAGAAGGTGACCSGCCACWCTGAGACTGAYACACSGCCCACACCCCTACGGGAGGCMGCTGTGGGGAATTTTACACWGTGGGCSCRACCCTGATGCMCCWRCCCCGCGTGAGGGAARAGSGCCTTCGGGTTGTAAACCTCTTTTMRCGGGGAAAAAGGKAAGGTTACAGTCCCTGCASAAATAACACTRGCTAACTACKTGCCACCRGCCRCGTTAATACSTARGGTGCAAGCGTTATCCRGAATTATTGGGCGTAAAGAGCTCRTAGGGCGTTTGTCGTGTCTGCTGTGAAAACTGGGGGCTCTACCCCCASCCTGCAGTGKGTACSGGCACACTAKAKTGCGACTGCGGGARATTGGAATTCCTGGTGTAGATGTGGAATGCGCATGATATCATGAKGAACACCGATWTCSARAGGAATCTCTGGGCCATAACTGACKCTTAGGAGCGAAMSGGTGGGGAKCCAACAWGCTTAGATACCCTGGTAGTCCACCCATACCCACGTTGTCAACTCSTTRTGSGATCTMTTCTGCTGATTGCACGACKCAYCTSTTCACTWTCAATTCCCCCCCCGTGAGAGTAACGCSCGCRKGGAGTACACTCCGCRAGAGTTTGASACGSKACCCGACWYTGAKCGGGGASAGCATGCMRGATTWWGKTMTGATGCRACKCTAATTAACATRTAMCRCGMWTAGACATATACTACKAMYTGGSCYRTACWATGRGKCTWACTCTATGRKACRTCTCGTACATCRCRTGGATGCACTGGWTGTCRTCAGCTCCTAGTSCTGAGCATGCTTGSTRTTAAKSTCYCASCAWRCTAGMGGYAAACSYCYCGYMYATAGYGGCCMGCCAYGTSAYGGWGSTGGACWMTCAWAAGGAKRCCTGCYATSGATCAAWGCATCGGCAWGGAMAARGATYGGGCATGACGGATCGAGAATMKWKACATGCCCGCTTATAKGATGCTKCGTC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MPM37</t>
+          <t>MPM410</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GWRRAMSRGGCCTTAMSATGCAGTCGAGGGGTATAGTTCTTCGGAACTAGAGACCGGCGCACGGGTGCGTAAYGYGTATGCARTCTACCTTTCACAGAGGGATAGCCCRGAGAAATTTGGATTAATACCTCATAGTATAATTGAATGGCATCATTTAATTATTAAAGTCACAACGGTGAAAGATGAGCATGCGTCCCATTAGCTTGTTGGTAAGGTAACGGCTTACCAAGGCRACGATGGGTAGGGGTCCTGAGAGGGAGATSCCCCACACTGGTACTGAGACACSGACCAGACTCCTACGGGAGGCAGCAGTGAGGAATATTGGTCAATGGGCGCAAGCCTGAACCAGCCATGCCGCGTGCAGGATGACGGTCCTAWGGATTGTAAACTGCTTTTGTACAGGAAGAAACACTGGTTCGTGAACCAGCTTGACGGTACTGTAAGAATAAGGATCGGCTAACTCCGTGCCAGCAGCCGCGGTAATACGGAGGATCCAAGCGTTATCCGGAATCATTGGGTTTAAAGGGTCCGTAGGCGGTCAGATAAGTCAGTGGTGAAAGCCCATCGCTCAACGGTGGAACGGCCATTGATACTGTCTGACTTGAATTATTAGGAAGTAACTAGAATATGTAGTGTAGCGGTGAAATGCTTAGAGATTACATGGAATACCAATTGCGAAGGCWGGTTACTACTAATGGATTGACGCTGATGGACGAAAGCGTGGGTAGCGAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGGATACTAGCTGTTGGGAGCAATCTCASTGGCTAAGCGAAAGTGATAARTATCCCACCTGGGGAGTACGTTCGCAAGAATGAAACTCAWAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGATGATACGCGAGGAACCTTACCAAGGCTTAAATGTAGATGGACCGGTTTGGAAACAGATCTTTCKCAAGACAATTTACAAGGTGCTGCATGRTTGTCGTCAKCTCGTGCCGTGAGGTGTCWGTTAAGTCCTATACGAGCGCAACSCCCTGYTGTTAGTTGSCAKCGAGTCATGGTCGGGWAGCTCTACGAGACTGCTAGYTGCAAACTGTKAGGGAATGGTGGTGATGACGTTCAAAATCATYAYTGAGCGTTAACGACATGGGCCTRACCACGTGCTACATGGTCCGGTAGCTARAGACCRTAGCTACT</t>
+          <t>GGGCGGGCKCRGTATRSATGCAGGYYSAGYSAATGSATKGWGASMYYGSTCTYATGAWKTTRGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGAGTACGGCCGCAAGGCTGAAACTCAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCAGGTCTTGACATCCTCTGAAACCCTAGAGATAGGGCTTCTCCTTCGGGAGCAGAGTGACAGGTGGTGCATGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTAAGTCCCGCACGAGCGCAACCCTGATCTAGTGGCCATCATTAAGTGGCACTCTAAGGTGACTGGCGGTGACAACCGGAAGAGTGGGATGACGTCAATCATCAKGCCCTTAKACCTGGGCTAACCCARCGKTGTCATACGA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MPM48</t>
+          <t>MPM42</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GACGACSGCTTATCRTGYGRCTCGAGCGAGTGGATTMAGAGCTTGCTCTTRTGAAGTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCRGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTWGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCKGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGAGGCWSCMSTARGGAATCTTCCSCAATGGACGAAAGTCTGAMKGARCGRCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTAGTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCWCKGCTAACTACKTGCCASCAGCCGCGGTAATACGTAKGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCASGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCAMCCGTGGAGGGTCATTGGAAACTGGGAGACTTGASTGCAGAASAGGAAAGTGSAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATGGAGGAACWCCARTGGCGAAKGCKACTTTCTGGTCTGTRACTGACWCTGAGGCRCGAAAGCGTGRGGAGCMAACASGATTAGATAYCCTGGTAGTCCACRCCSTAWACRATGAKTGCTAAGTGTTASAGGGTTTCCSCYCTTTASTGCTGAAKTTMACKCWYTAAKCACTCYSCCTGGKGGAGTACGGCCGCWWKGCTGAAACWCWTAGGAAWTGACGGGGGCCCGCWCTASCSGTRGAGCATGTGGWTTAATYTCGASCMCRCGAAKAACCTTACCWGGTCKTGACATCCTCTGCAAAGCCCTASAGATARGGCTTCTYCTTCGTGAGCAGCAGTGWCAGGTGGTGCATGGTTGTCGTCAGCTCTGWCGTTGAGATRYTSGGRTRMSTCCKCAYGAGCSGACCYTTYGAYCTTCAGWTGTCATYATTWAGGTGAGCACTTCTWAGSTGACTGGCCTGCKTACGGACTGTAGGAMGGTKKGCATGACGTCGATTGCATCATGCCCCGTTACTGAGCCTGGCCTWACCACAT</t>
+          <t>TYAKRRCGCCTACYATGCCSTCSAGCGGTTRCGCGAACKTMKCTTGCTGTTTTGCCKGCSAKCGGCTGACGGGTGAKTAATGCCWGGGAAATTGCCCTATTCACGGGGATAATCKTTGGAAACGACWCCTRATACCGCAKACGCCCTGAGGGGATTCAGGGGACCTTCSGGCCTTGCACGATTGGATTGCCATTGTGGGATTTCTTGTTGGTGAGGTAATGGCTCACCRCCGCTACRATMCCTGTGTGGTCTGAGASGATRAGCCCCCRCWCAGKAACTGACACCCCGTCCWTACTCCKGCTGGASGCCGCMRTGGGGAATATTGTTCCCTGGGGGAAACCCTGATGCARCCRTACCGGGGTTGTGAASAATGCCTTCSGGTTGTMAASCACTTTCRACRAGGASGAAAGGTTGATACCTAAYACCTATGTTCTGTGACSTTACTCGCCTAASAAGCACCGGCWAGATCCCTGACATCTSCCGGSGTAGTACGGATGGTGCAAGCGTTAATCAKAATTACWGGGCCTCAASCGCACGCRCGCGGTTGGATAAATTARATTTAAAAKCCCCCGGCTCAACCTGGGACTTGCGTTTAAAACTGTCCASCTTAAGTCTTGAAAGGGGGGTAGAATTCCCRGTGTASCGRTSAAATGCGTTKASATCKTGAAGAATACCGGTRGCKAATGCTGTTTGCTCGACAMACACTGACRCTTAAGTGTSAATCCKTGTGGAGCARACCGGATTCGATACCCKGGTAGTCCACGATSTATACGATGTTCATCTSKACGCYGTGTCCTTKASACSTGGCTWCCRGAGCTWASGCGTTMAATCGACMGTCCGRKTASTACGGCCACACCGTTAAAACTCAAATGAATTKAYCGGAGCCCSCRCAATGCGCTKKASCMCSTGGTTTTACTTCKATRCACCKCGCAASMAWCCTTACCTAGCCCKTCACRTGTSCASGAAWYCTWGTASAGWKTMYKGKWSTTGCCWKTARCGAATCAGAAYCACWACGTRCTGCRKRTCTGTCGTCMSCTCCTCGTCGTGAAGATKSTTKRSTWMASTCCMCGCCAWYSATCRCAMCCCTGYCKGTYKGTCGTTCAGCRCKTTACTSCKWTGGTACTACWATGCACRMCCTGCTGSTGAYCCAATMGGAGKYAWGGTTCSGGATGTACGTTCAMGTYRKYRGCGTCACTTACGTCCAGACTACTACCGAKATCCTGACWTAGCAGYA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MPM38</t>
+          <t>MPM44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GGAAGCAGKCTAAATGCAGTCSAACGGTGTAKCMGAGCTTGCTCTGTGGATCSTGGTRAAGSGGTGARTAACACSTGAGCAACCTGCCCCTGACTCTGGGATMASCGCTRGAAACGGCKTCTAAYACTGGATATGASCTGCGATCCCAYGGGCCKCATTTGGAAAGATTTTTCKGTCTGGGATGGGCTCAYTGSCKATCAACTKGTTGGTGAGGTAATGGCTCMCCARSGCGTCTACKGGTAGCCGGCCTGARAGGGTGACCGGCCACACTGGGACTGARACTCGGCCCASACTCCYACSGGAGGCASCACTGGGGAATATTGCACRATGGGCGAAAGCCTGATGCRTCAACACCGCSTGAGGGATGACKGCCTTCGGGTTGTAAACCTCTTTTAGCWGGGAAGAAGCGAAAGTGACKGTACCTGCAKAAMAAGCGCCGGCTAACTACATGCCAKCCCCCKCGGTAATACRTARGGCACARGCCTTATCCTGAATTATTGGGCGTAAAGAGCTCSTAKGCKGTTTGTCGCTTCTGCTGTGAAATCCCRACGCTCRACCTCRGGTCTGCATTGGGTACGGGCMKACWARASTGCRGTRKGGGAGATTGGGATTCCTGGTGTAGCGGTGGAATGCGCAGATWTCAGGAGGAACACAGATCGCGAAGGCAGATCTCTGGGCCGTTACTGACGCTSAGGAGCKAAASGGTGGGGAGCAAACMAGCTTAGATACCCTGGTAGTCCACCCCGTACACTTTGGGAACTAGTTGTGGGGTCCATTCYCTTGATTCCSTGACRCAGCTSYRCMCAATTTCCCCCCCTGGGGAGTACTGCCGCARGCTAAAAACTCAAAGGAATTGACRGGGACGCKSCMCWMGCRGCGGAGCAWGCGGATTWATTWCKATGCACRCSCAKAAMMTTAYCAMCGCTTGACRTMTWCYAKAACGTGCCCAAATRGTCAACTCTYTKGACWCKCGTAWMCTSGTYGTGCATGGTTSRTCGWCAKCTCGYTKCCKTKMGAYGTWTCGAKATGATSTMCCTCCAMCRAGSCCAACCMYCCCYTMTRYSTMGCTCRCCACSTMMTGGMTGGGRACKMAYKSKGAWGMWGACCGMSAKCMACWCCATACCGAMAGGWGGGTAGTGAACGTCAATTCATCRGWGCCCGTTRCTGWCTCGGCTCGTTSCACTGCCAGCCTACCATTCGWGCGAGCTTMCCGW</t>
+          <t>GWSTCGCTCAAGARTGYGGCTCSAGCGAGTGGATTCAGAGCTTGCTCTTGTKAARTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAATCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCAGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTTGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCGGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGASGCWSCMSTWRGGAATCTTCCSCWATGGACGAAARTCTGAAKGARCGGCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTASTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCACKGCTAACTACKTGCCASCWGCCRCGGTTCTACGTATGTGGCAARCGTTATCCGGAATTATTGGGCGTAAAGCGCGCSCMSGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCGTGGAGGGTCATTGRAAACTGGGAGACTTGASTGCAGAASAGGAAASTGSAATTCCWTGTGTAKCGGTGAAATGCGTATAGATATGGAGGATCWCCARTGGCGAATGCKACTTTCTGGTCTGTRMCTGACWCTGAGGCRCGAAAGCGTGGGGAGCMAACASGATTAGATAYCCTGGTARTCCACRCCSTAWACRATGAKTGCTAAGTGTTASAGGGTTTCTSCCCTTTASTGCTGTMKTTMACKCACTAAKCACTCCSCCGGKGAGTACGGSCGCWWKGMTGACACWCWTARGAAWTGACGGGSGCCCGCWCWASCCGTGGAGCATGTGGWTTAATTCGMSCMMCRCGTAKAACCTYASCWGGTCKTGACATCCTCTGCAATRSCCTWTCAGAKATRGGCTATCYKYCTWCGTGAGCAGCAGTRWWCAAGCTRGTGCATGGTYGTCGTCAGCWCWGWCGTTGWGATRYTCGGRWGACGTTCCCKCACCAGCSCSASCCYYTYYKMTCTTCAGWYGYYMTYACTAWGYTGGRGCACTTCCTAWASTGACTGCCTGSCTGWCRGAACYCGTAGAMGTTGYGGCAAKACGTCTAGTTGCACTCGGATKCACCCKCCTCWST</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MPM49</t>
+          <t>MPM45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CTGGGGGGGGCGTSTSATGCAGGTCSAGCGAGTGGATYGAGAGATTGCTCTTATGAAGTTAGCKGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCAWAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCRGCTGTCACTTATGGATGGACCCGCGTCGCAWTAGCTWGTTGGTGAGGTAACGGCTCACCRAGGCAACKATGCGTASCCGACCTGARAGGGTGATCGGMCACACTGGGACTGASACACGGCCCAGACTCCTACSGGAGGCASCASTARGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCRACGCCSCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTARGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACKGCTAACTACGTGCCASCAGCCGCGGTAATACGTAKGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAMCCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAKAGATATGGAGGAACACCARTGGCGAAKGCKACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACASGATTAGATACCCTGGTASTCCACGCCSTAWACGATGAGTGCTAAGTGTTAGAGGGTTTCCGYCCTTTASTGCTGAAGTTMACGCACTAAGCACTCCSCCTGGGGARTACGGSCGCRWKGCTGAAACWCAAAGGAAWTGACGGGGGCSCGCAYAAGCSGTGGAGCATGTGGWTTAATTCGAASMACGCGAAGAACCTTACCAGGTSTTGACATCCTCTGAAACYCTACAGRTAGGGCTTCKYCTWCGKGASCAGSAGTGACAGTGGTGCATGGTTGTCGTCAGCTSTGWCGTGWRCATRKTSGGGATGACGTCCAGCAACGAAGCGCACSCTTKSATCTAGATGYCATCATTAGTTGGRGCACTCTAAGGGTGACTGGCCGGCTGACAGAACTGAAGGCAAGTGGGCATKACGGTCGAATCACTCCATGTACCCCYGTTACWGA</t>
+          <t>TRCSGGGTCWAKCATGCACTCSAGCGGACASATGGGAGCTTGCTCCCKGAASTCASCSGCGGACKGGTGAGTAACACKTGGGCAACCTGCCTGTAGACTGGGATAACTCCKGGAAACCGGGGCTAATACCGGATAATTCTTTTCCTCTCATGAGGAAAAGCTGAAAGATGGTTTCGGCTATCACTTACAGATGGGCCCGCGGCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCCACGATGCGTAGCCRACCTGARAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCASACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACSAAASTCTGACGGASCAACGCCGCGTGAGTGATGAAAGTTTTCSGATCRTMWAACTMYGTTGTCWGGGAASAACMAKTACCSRASTRACTGCCKGTMCCTTGACGGTRCCTGACCWRAAWSCCACGGCTAACTACGTGCCMRCRACCKCGGTAAGACSTASGTGGCAAGCGTTGTCCRGAATTATKGGGCRTMAAKCGCGCGCRSGCSGTTCCWTWMSTCTGATKTKAAASCCCCCGGCTCWACCSGGGAGGGTCATTGSAAACTGGGGAACTTGARTGCMKAAGAGAAGARTGSAATTCCACRTGTAGCGSTSAAATGCGTAGAGATGTGGARGAACACCWRTGGCKAATGCGACTCTYTGGTCTGTAACTGACGCTGAGGCGCGAAAGCGTGRGGAGCWMACAKGATTAGATACCCTGGTASTCCATCCGTAAACGATSASTGCTAMRTGTTAGAGGGTTTCCKCYCTTTASTGCTKCAGCWTACGCATTAWGCACTSMCCCTGGGGSAGTACGAGCCGCRGGCTGAACTCAAGGAATTGACRGGGGCSCGCMCRSCKGTGGAGCATGWGGTYTAGWTMMASCRCGCSCAGAWCTTACCRCGTCTKSASRTCTCCWGWYACCCTRGMKATACKGGYSTTSYMCTTYSGGGGACACGGAYGACWAGTGGSTGCACGKGTTGTCKTCCGSWCGWSTCATKWGWCGTWGSSGTAAGTCCTCGCAACGWGCGCAGCCGTTGATCTTACTGCCTAKCCRTCCAGTTGGGCACGWCTMMGTTGACTGCGTTSACTAGCAGGYMTGAGCGTGGGCATGACKTCRATYCRGTCATGAACTCCCCTWATCTGTACG</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MPM39</t>
+          <t>MPM46</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GGGGGGGRRSCRGTAYSATGCTMGTCSAACKGCGAAGAGARCTCAGCTCTSKKGRTCAGTGGCGAACGGGTGAGTAACACRTGAGAAATCTGCCCCTGAYTCGGGAATAACCGCTGGAAACSGGATCWAAWACCSGATACAACCTGCGATGGCATCTGCGGATSCTGGAACCAACTTCTGTTGGGGATGASCTTGTGGGATTTCCTCTTKTTKGTGGGGTAATGGCTCMCCRGSGCCTCKACGGGTMKCCKGCCAGAGAAGGTGACCSGCCACWCTGAGACTGAYACACSGCCCACACCCCTACGGGAGGCMGCTGTGGGGAATTTTACACWGTGGGCSCRACCCTGATGCMCCWRCCCCGCGTGAGGGAARAGSGCCTTCGGGTTGTAAACCTCTTTTMRCGGGGAAAAAGGKAAGGTTACAGTCCCTGCASAAATAACACTRGCTAACTACKTGCCACCRGCCRCGTTAATACSTARGGTGCAAGCGTTATCCRGAATTATTGGGCGTAAAGAGCTCRTAGGGCGTTTGTCGTGTCTGCTGTGAAAACTGGGGGCTCTACCCCCASCCTGCAGTGKGTACSGGCACACTAKAKTGCGACTGCGGGARATTGGAATTCCTGGTGTAGATGTGGAATGCGCATGATATCATGAKGAACACCGATWTCSARAGGAATCTCTGGGCCATAACTGACKCTTAGGAGCGAAMSGGTGGGGAKCCAACAWGCTTAGATACCCTGGTAGTCCACCCATACCCACGTTGTCAACTCSTTRTGSGATCTMTTCTGCTGATTGCACGACKCAYCTSTTCACTWTCAATTCCCCCCCCGTGAGAGTAACGCSCGCRKGGAGTACACTCCGCRAGAGTTTGASACGSKACCCGACWYTGAKCGGGGASAGCATGCMRGATTWWGKTMTGATGCRACKCTAATTAACATRTAMCRCGMWTAGACATATACTACKAMYTGGSCYRTACWATGRGKCTWACTCTATGRKACRTCTCGTACATCRCRTGGATGCACTGGWTGTCRTCAGCTCCTAGTSCTGAGCATGCTTGSTRTTAAKSTCYCASCAWRCTAGMGGYAAACSYCYCGYMYATAGYGGCCMGCCAYGTSAYGGWGSTGGACWMTCAWAAGGAKRCCTGCYATSGATCAAWGCATCGGCAWGGAMAARGATYGGGCATGACGGATCGAGAATMKWKACATGCCCGCTTATAKGATGCTKCGTC</t>
+          <t>GSSGCGGTCTWAKCRTGYRACTCGAGCGAGTGGATTMAGAGCTTGCTCTTGTKAMRTTAKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCRGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTWGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCKGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGAGGCWSCMSTARGGAATCTTCCSCWATGGACGAAARTCTGAAKGARCGRCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTASTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCACKGCTAACTACKTGCCASCAGCCRCGGTAATACGTAKGTGGCAARCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCMSGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCGTGGAGGGTCMTTGGAAACTGGGAGACTTGASTGCAGAASAGGAAASTGGAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATSGAGGAACWCCARTGGCGAAKGCKACTTTCTGGTCTGTAACTGACWCTGAGGCRCGAAAGCGTGGGGAGCAAACASGATTAGATACCCTGGTARTCCACRCCSTAWACRATGAKTGCTAAGTGTTWSAGGGTTTCCSCYCTTTASTGCTGAAGTTMACKCWYTAAKCACTCYGCCTGGKGAGTACGGSCGCWWTGCTGAACWCWTAGGAAWTSACCGGSGCCCGCWYWAGCCSTGGARCATSTGGTTTAATTCGAGCAACRCGTATAACCTYAGCCWGGTCKTGACATCCTTCTGCAWACCCTWTCAGATTAGGCTTCTYCTTCGKGASCAGAKTGWCAAGTRGTGCATGTTSTTCGTCARCWCWGWCGTKAGATRTCSGATTAMGTCMKCCAYGAGCSCSACCTYTTYGAYSYTAGATTGTYMKYACTTTAKGYTGAGCATTCTATASTGMCTGCTGCKTACCGACYGTAGGACGTTGTAKTACGTCGAKTCATCATKACCCCTTTAYTGAASCKT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MPM410</t>
+          <t>MPM47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GGGCGGGCKCRGTATRSATGCAGGYYSAGYSAATGSATKGWGASMYYGSTCTYATGAWKTTRGCGGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCGGCTGTCACTTATGGATGGACCCGCGTCGCATTAGCTAGTTGGTGAGGTAACGGCTCACCAAGGCAACGATGCGTAGCCGACCTGAGAGGGTGATCGGCCACACTGGGACTGAGACACGGCCCAGACTCCTACGGGAGGCAGCAGTAGGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCAACGCCGCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACGGCTAACTACGTGCCAGCAGCCGCGGTAATACGTAGGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAACCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAGAGATATGGAGGAACACCAGTGGCGAAGGCGACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACAGGATTAGATACCCTGGTAGTCCACGCCGTAAACGATGAGTGCTAAGTGTTAGAGGGTTTCCGCCCTTTAGTGCTGAAGTTAACGCATTAAGCACTCCGCCTGGGGAGTACGGCCGCAAGGCTGAAACTCAAGGAATTGACGGGGGCCCGCACAAGCGGTGGAGCATGTGGTTTAATTCGAAGCAACGCGAAGAACCTTACCAGGTCTTGACATCCTCTGAAACCCTAGAGATAGGGCTTCTCCTTCGGGAGCAGAGTGACAGGTGGTGCATGGTTGTCGTCAGCTCGTGTCGTGAGATGTTGGGTAAGTCCCGCACGAGCGCAACCCTGATCTAGTGGCCATCATTAAGTGGCACTCTAAGGTGACTGGCGGTGACAACCGGAAGAGTGGGATGACGTCAATCATCAKGCCCTTAKACCTGGGCTAACCCARCGKTGTCATACGA</t>
+          <t>GGKGCGGKCAAKCRTGYGGSTCSAGCGAGTGGATTCAGAGCTTGCTCTTGTKAMRTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCAAAAGACTGGGATAACTCCGGGAATCGGGGCTACTACCGGATAACATTTTGAACTGCATGGTTCCAAATTGAAATGCGGCTTCAGCTGTCACTTATGGATGGACCCSCRTCKCRYTAKCTTGTTGGTGAKGTAACSGCTCAYCGWRGCAMCKATGCRTASCCGACCTGARAGGGTGATCKGACWCACTGGGACTGASACMCKGCCCCGACTCCTACSGGASGCTSCMSTARGGAATCTTCCSCWATGGACGAAARTCTGAATGARCGGTTCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTAGGGAAGAACAAGTGCTAGTTGAATAASCTGGCACCTTGACGGTACCTAACCASAAAGGTTTTGCTAACTACGTGCCACCWGCCGCGGTAATACGTATGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCASGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCMMCCRTGGAGGGTCMTTGGAAACTGGGAGACTTGAGTGCAGAASAGGAAAGTGSAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATSGAGGATCWCCARTGGCGAATGCKACTTTCTGGTCTGTRACTGACWCTGAGGCRCGAAAGCGTGAGGAGCCWTCRSGATTAGATACCCTGGTAGTCCACRCCGTATACRATGAKTGCTAAGTGTTASAGGGTTTCCSCCCTGTASTGCTGTMKTTMACKCWYTAAKCACTCCCCCTGGKKGAGTACGGSCGCWWTGMTGTCACACWWAGGAATTGACCGGGSGCSCGCWCTAGCSGTRGAGCATSTGGATTAATTCTGMCMCACCRCGTAKAACCKYASCWGGTCGTCGACATCCTCTGCAAAASCCTATCTGATWGGGCTTCKCCTWCGTGAGCAGCATTGWCAAGSTGGYRCATGTTGTCSTCAGCTACGWGWCKTKWGMATRYTCGGGAWTGACGTCCMKCACYCAGCSCGASCTCTKYKMTCTTCAGATYGTYCAKTCWCTTWAGCTGGAGCACTCCCWASCTGAMCTGCTGCTGTMCGACTCGAGAMGGTGCGCAATKACGTCGAATGCAKCGATGCMCCCTTATT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MPM42</t>
+          <t>MPM48</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TYAKRRCGCCTACYATGCCSTCSAGCGGTTRCGCGAACKTMKCTTGCTGTTTTGCCKGCSAKCGGCTGACGGGTGAKTAATGCCWGGGAAATTGCCCTATTCACGGGGATAATCKTTGGAAACGACWCCTRATACCGCAKACGCCCTGAGGGGATTCAGGGGACCTTCSGGCCTTGCACGATTGGATTGCCATTGTGGGATTTCTTGTTGGTGAGGTAATGGCTCACCRCCGCTACRATMCCTGTGTGGTCTGAGASGATRAGCCCCCRCWCAGKAACTGACACCCCGTCCWTACTCCKGCTGGASGCCGCMRTGGGGAATATTGTTCCCTGGGGGAAACCCTGATGCARCCRTACCGGGGTTGTGAASAATGCCTTCSGGTTGTMAASCACTTTCRACRAGGASGAAAGGTTGATACCTAAYACCTATGTTCTGTGACSTTACTCGCCTAASAAGCACCGGCWAGATCCCTGACATCTSCCGGSGTAGTACGGATGGTGCAAGCGTTAATCAKAATTACWGGGCCTCAASCGCACGCRCGCGGTTGGATAAATTARATTTAAAAKCCCCCGGCTCAACCTGGGACTTGCGTTTAAAACTGTCCASCTTAAGTCTTGAAAGGGGGGTAGAATTCCCRGTGTASCGRTSAAATGCGTTKASATCKTGAAGAATACCGGTRGCKAATGCTGTTTGCTCGACAMACACTGACRCTTAAGTGTSAATCCKTGTGGAGCARACCGGATTCGATACCCKGGTAGTCCACGATSTATACGATGTTCATCTSKACGCYGTGTCCTTKASACSTGGCTWCCRGAGCTWASGCGTTMAATCGACMGTCCGRKTASTACGGCCACACCGTTAAAACTCAAATGAATTKAYCGGAGCCCSCRCAATGCGCTKKASCMCSTGGTTTTACTTCKATRCACCKCGCAASMAWCCTTACCTAGCCCKTCACRTGTSCASGAAWYCTWGTASAGWKTMYKGKWSTTGCCWKTARCGAATCAGAAYCACWACGTRCTGCRKRTCTGTCGTCMSCTCCTCGTCGTGAAGATKSTTKRSTWMASTCCMCGCCAWYSATCRCAMCCCTGYCKGTYKGTCGTTCAGCRCKTTACTSCKWTGGTACTACWATGCACRMCCTGCTGSTGAYCCAATMGGAGKYAWGGTTCSGGATGTACGTTCAMGTYRKYRGCGTCACTTACGTCCAGACTACTACCGAKATCCTGACWTAGCAGYA</t>
+          <t>GACGACSGCTTATCRTGYGRCTCGAGCGAGTGGATTMAGAGCTTGCTCTTRTGAAGTTMKCKGCKGACGGGTGAGTAACACGTGGGTAAGCTGCCCATAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCSAAATTGAAAKGCGGCTTCRGCTGTCACTTATGGATGGACCCSCRTCKCAYTAKCTWGTTGGTGAKGTAACSGCTCAYCRWRGCAACKATGCRTASCCGACCTGARAGGGTGATCKGMCWCACTGGGACTGASACMCKGCCCMGACTCCTACSGGAGGCWSCMSTARGGAATCTTCCSCAATGGACGAAAGTCTGAMKGARCGRCKCCGCKTGAGTGATGAAGGCTTTCRGGTCSTAAAACTCTGTTGTTARGGAAGAACAAGTGCTAGTTGAATAASCTGGCACCTTGACGGTACCTAACCWSAAAGCCWCKGCTAACTACKTGCCASCAGCCGCGGTAATACGTAKGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCASGTGGTTTCTTAAGTCTGATGTGAAAGCCCMCGGCTCAMCCGTGGAGGGTCATTGGAAACTGGGAGACTTGASTGCAGAASAGGAAAGTGSAATTCCWTGTGTAKCGGTGAAATGCGTAKAGATATGGAGGAACWCCARTGGCGAAKGCKACTTTCTGGTCTGTRACTGACWCTGAGGCRCGAAAGCGTGRGGAGCMAACASGATTAGATAYCCTGGTAGTCCACRCCSTAWACRATGAKTGCTAAGTGTTASAGGGTTTCCSCYCTTTASTGCTGAAKTTMACKCWYTAAKCACTCYSCCTGGKGGAGTACGGCCGCWWKGCTGAAACWCWTAGGAAWTGACGGGGGCCCGCWCTASCSGTRGAGCATGTGGWTTAATYTCGASCMCRCGAAKAACCTTACCWGGTCKTGACATCCTCTGCAAAGCCCTASAGATARGGCTTCTYCTTCGTGAGCAGCAGTGWCAGGTGGTGCATGGTTGTCGTCAGCTCTGWCGTTGAGATRYTSGGRTRMSTCCKCAYGAGCSGACCYTTYGAYCTTCAGWTGTCATYATTWAGGTGAGCACTTCTWAGSTGACTGGCCTGCKTACGGACTGTAGGAMGGTKKGCATGACGTCGATTGCATCATGCCCCGTTACTGAGCCTGGCCTWACCACAT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MPM11</t>
+          <t>MPM49</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GAAASCGGGCGACWRTGCTAGTCGGACGGTGTCACAASGAACTTGTTCCTSGKGAGAMGAGTGGSRGAGGGGTGAGTAGTGTGGGGGGATCTGCCAKATAGAGGGGGATAACCTGTGAAAACKGGSGCTAAYCCCGCAWAACCTCRCAACACCAAAGAGGGGGACTTTCGGGCCTCTCAMTATSGGAAGAACCCAKAGGGGATTATCTTRTGSGCGGGGTAACGGCCCCCCTGCGACAATATCCCTCGCTGGTCAGAGAAGAAGACCSGCCACWGTGGCTCTGASACRCKGCCCACACCCCCACGGGASGCCRCTGTGGAGAATATTGCAMAGTGGGCRCAASCCATATGCCCCTATGCCGCGTGTAARAAAAGSGCTTTCGGGTTGTARAATTTTTTCCGCGGGGAAGAGGGAKATGTGGTTAATACCCGTCTATATAGACTTTCCCCGCAAAAAAAACCSCGGCAATCTCCGTGCCMRCCCCCGCGGTAATACAGAGGGTGCRCGTTTTTATCAAATTTAGKGGGTGTAAAGCMCRCRCGSGCKGTCTGTTATSTCATATGTRATATCCCCGCGTTTMMTCKGAGATCTGCTTTTGAMACTGGCGCGCKTGTCTCTCRTAGAGGGGGGTARAATTCCGTGTGTAGCKGTGATGTGTRTAGAKCTGTRGAAGAATACCTGTSGYRAACGCCGCCCTGTGCACRAASACWGACTCTCGTGTGCKAAMGCGTGGRGCRCACASGAGAWTATATMCCCKGRTTSTCCACCCYRTACRATATSTMYACKTGGGTGTTGTTCYCKTGGAGAGTGTTTTCCAGAKCTCACGCKTTATSTMSACCGYSKGGAGTGTASCGYCRMAGYGTTAAMWCTCATRWGWWKWSACGGGGCGCSCRCACAMKSTGTRGTAGCRTGTKGTTTTATYTMTATRCRCGCRGARMATYWTMYCTACTCGTGAYMTCCAGARAATWTMGCAGATAYGCTTTTTGTGYYTKCGARAACTGWGACACATGCTGCTRCATCGWSTSTCCWCATCCTCGTGGTTGWRAAATGTTGKTKWWRWSTCGCCRCACGAGCACACCYCWTTASTMTTKTTGTTCSCCRGCRATTSCKGTCGRAATCTCAAAGARGAACASTGGCGKKTATAAMCCTRGAGAAAKGTGGCGRWTGACTTMGATCTTACTCRGGCCCTCTYACRTATKATACG</t>
+          <t>CTGGGGGGGGCGTSTSATGCAGGTCSAGCGAGTGGATYGAGAGATTGCTCTTATGAAGTTAGCKGCGGACGGGTGAGTAACACGTGGGTAACCTGCCCAWAAGACTGGGATAACTCCGGGAAACCGGGGCTAATACCGGATAACATTTTGAACTGCATGGTTCGAAATTGAAAGGCGGCTTCRGCTGTCACTTATGGATGGACCCGCGTCGCAWTAGCTWGTTGGTGAGGTAACGGCTCACCRAGGCAACKATGCGTASCCGACCTGARAGGGTGATCGGMCACACTGGGACTGASACACGGCCCAGACTCCTACSGGAGGCASCASTARGGAATCTTCCGCAATGGACGAAAGTCTGACGGAGCRACGCCSCGTGAGTGATGAAGGCTTTCGGGTCGTAAAACTCTGTTGTTARGGAAGAACAAGTGCTAGTTGAATAAGCTGGCACCTTGACGGTACCTAACCAGAAAGCCACKGCTAACTACGTGCCASCAGCCGCGGTAATACGTAKGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGCGCGCAGGTGGTTTCTTAAGTCTGATGTGAAAGCCCACGGCTCAMCCGTGGAGGGTCATTGGAAACTGGGAGACTTGAGTGCAGAAGAGGAAAGTGGAATTCCATGTGTAGCGGTGAAATGCGTAKAGATATGGAGGAACACCARTGGCGAAKGCKACTTTCTGGTCTGTAACTGACACTGAGGCGCGAAAGCGTGGGGAGCAAACASGATTAGATACCCTGGTASTCCACGCCSTAWACGATGAGTGCTAAGTGTTAGAGGGTTTCCGYCCTTTASTGCTGAAGTTMACGCACTAAGCACTCCSCCTGGGGARTACGGSCGCRWKGCTGAAACWCAAAGGAAWTGACGGGGGCSCGCAYAAGCSGTGGAGCATGTGGWTTAATTCGAASMACGCGAAGAACCTTACCAGGTSTTGACATCCTCTGAAACYCTACAGRTAGGGCTTCKYCTWCGKGASCAGSAGTGACAGTGGTGCATGGTTGTCGTCAGCTSTGWCGTGWRCATRKTSGGGATGACGTCCAGCAACGAAGCGCACSCTTKSATCTAGATGYCATCATTAGTTGGRGCACTCTAAGGGTGACTGGCCGGCTGACAGAACTGAAGGCAAGTGGGCATKACGGTCGAATCACTCCATGTACCCCYGTTACWGA</t>
         </is>
       </c>
     </row>
